--- a/docs/期货文档/能源期货.xlsx
+++ b/docs/期货文档/能源期货.xlsx
@@ -1,37 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study_data\graduate_content\Futures\FPP\docs\期货文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9600D7D0-4EC4-453F-9DD7-120BC7DFBE5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-23016" yWindow="1980" windowWidth="23232" windowHeight="11844" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="交易手册划分汇总" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LLDPE" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PVC" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="苯乙烯" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="胶合板" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="焦煤" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="焦炭" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="聚丙烯" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="纤维板" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="乙二醇" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20号胶" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="燃料油" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="纸浆" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PTA" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="玻璃" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="纯碱" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="动力煤" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="棉纱" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="交易手册划分汇总" sheetId="1" r:id="rId1"/>
+    <sheet name="LLDPE" sheetId="2" r:id="rId2"/>
+    <sheet name="PVC" sheetId="3" r:id="rId3"/>
+    <sheet name="苯乙烯" sheetId="4" r:id="rId4"/>
+    <sheet name="胶合板" sheetId="5" r:id="rId5"/>
+    <sheet name="焦煤" sheetId="6" r:id="rId6"/>
+    <sheet name="焦炭" sheetId="7" r:id="rId7"/>
+    <sheet name="聚丙烯" sheetId="8" r:id="rId8"/>
+    <sheet name="纤维板" sheetId="9" r:id="rId9"/>
+    <sheet name="乙二醇" sheetId="10" r:id="rId10"/>
+    <sheet name="20号胶" sheetId="11" r:id="rId11"/>
+    <sheet name="燃料油" sheetId="12" r:id="rId12"/>
+    <sheet name="纸浆" sheetId="13" r:id="rId13"/>
+    <sheet name="PTA" sheetId="14" r:id="rId14"/>
+    <sheet name="玻璃" sheetId="15" r:id="rId15"/>
+    <sheet name="纯碱" sheetId="16" r:id="rId16"/>
+    <sheet name="动力煤" sheetId="17" r:id="rId17"/>
+    <sheet name="棉纱" sheetId="18" r:id="rId18"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="1305">
   <si>
     <t>来源</t>
   </si>
@@ -4579,35 +4585,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="10.5"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -4632,17 +4637,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4932,20 +4946,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4959,7 +4969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4973,7 +4983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4987,7 +4997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5001,7 +5011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5015,7 +5025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5029,7 +5039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -5043,7 +5053,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -5057,7 +5067,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -5071,7 +5081,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -5085,7 +5095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -5099,7 +5109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -5113,7 +5123,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -5127,7 +5137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -5141,7 +5151,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -5155,7 +5165,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" customFormat="1" s="2">
+    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -5169,7 +5179,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -5183,7 +5193,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -5197,7 +5207,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -5211,7 +5221,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -5225,7 +5235,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" customFormat="1" s="2">
+    <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -5239,7 +5249,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4" customFormat="1" s="2">
+    <row r="22" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -5253,7 +5263,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:4" customFormat="1" s="2">
+    <row r="23" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
@@ -5267,7 +5277,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -5281,7 +5291,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -5295,7 +5305,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -5309,7 +5319,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -5323,7 +5333,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -5337,7 +5347,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -5351,7 +5361,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -5365,7 +5375,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -5379,7 +5389,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -5393,7 +5403,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -5407,7 +5417,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -5421,7 +5431,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:4" customFormat="1" s="2">
+    <row r="35" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -5435,7 +5445,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -5449,7 +5459,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -5463,7 +5473,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -5477,7 +5487,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -5491,7 +5501,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -5505,7 +5515,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -5519,7 +5529,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>66</v>
       </c>
@@ -5533,7 +5543,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>66</v>
       </c>
@@ -5547,7 +5557,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -5561,7 +5571,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -5575,7 +5585,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>66</v>
       </c>
@@ -5589,7 +5599,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -5603,7 +5613,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -5617,7 +5627,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:4" customFormat="1" s="2">
+    <row r="49" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>103</v>
       </c>
@@ -5631,7 +5641,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:4" customFormat="1" s="2">
+    <row r="50" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>103</v>
       </c>
@@ -5646,26 +5656,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -5688,7 +5695,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1">
+    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -5711,7 +5718,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" customHeight="1">
+    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>435</v>
       </c>
@@ -5734,7 +5741,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4" customHeight="1">
+    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>442</v>
       </c>
@@ -5757,7 +5764,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" customHeight="1">
+    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>449</v>
       </c>
@@ -5780,7 +5787,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4" customHeight="1">
+    <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>456</v>
       </c>
@@ -5803,36 +5810,33 @@
         <v>462</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>464</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -5855,7 +5859,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1">
+    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -5878,7 +5882,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" customHeight="1">
+    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>470</v>
       </c>
@@ -5901,7 +5905,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4" customHeight="1">
+    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>477</v>
       </c>
@@ -5924,7 +5928,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" customHeight="1">
+    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>484</v>
       </c>
@@ -5947,7 +5951,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4" customHeight="1">
+    <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>491</v>
       </c>
@@ -5970,7 +5974,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.4" customHeight="1">
+    <row r="7" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>498</v>
       </c>
@@ -5993,7 +5997,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.4" customHeight="1">
+    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>505</v>
       </c>
@@ -6016,7 +6020,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.4" customHeight="1">
+    <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>512</v>
       </c>
@@ -6039,7 +6043,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.4" customHeight="1">
+    <row r="10" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>519</v>
       </c>
@@ -6062,7 +6066,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.4" customHeight="1">
+    <row r="11" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>526</v>
       </c>
@@ -6085,36 +6089,33 @@
         <v>532</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>534</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -6137,7 +6138,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1">
+    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>535</v>
       </c>
@@ -6160,7 +6161,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" customHeight="1">
+    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>542</v>
       </c>
@@ -6183,7 +6184,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4" customHeight="1">
+    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>549</v>
       </c>
@@ -6206,7 +6207,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" customHeight="1">
+    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>556</v>
       </c>
@@ -6229,7 +6230,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4" customHeight="1">
+    <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>563</v>
       </c>
@@ -6252,7 +6253,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.4" customHeight="1">
+    <row r="7" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>570</v>
       </c>
@@ -6275,7 +6276,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.4" customHeight="1">
+    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>577</v>
       </c>
@@ -6298,7 +6299,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.4" customHeight="1">
+    <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>584</v>
       </c>
@@ -6321,7 +6322,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.4" customHeight="1">
+    <row r="10" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>591</v>
       </c>
@@ -6344,7 +6345,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.4" customHeight="1">
+    <row r="11" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>598</v>
       </c>
@@ -6367,37 +6368,34 @@
         <v>604</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>606</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -6420,7 +6418,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1">
+    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>607</v>
       </c>
@@ -6443,7 +6441,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" customHeight="1">
+    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>614</v>
       </c>
@@ -6466,7 +6464,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4" customHeight="1">
+    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>621</v>
       </c>
@@ -6489,7 +6487,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" customHeight="1">
+    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>628</v>
       </c>
@@ -6512,7 +6510,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4" customHeight="1">
+    <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>635</v>
       </c>
@@ -6535,7 +6533,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.4" customHeight="1">
+    <row r="7" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>642</v>
       </c>
@@ -6558,7 +6556,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.4" customHeight="1">
+    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>649</v>
       </c>
@@ -6581,7 +6579,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.4" customHeight="1">
+    <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>656</v>
       </c>
@@ -6604,7 +6602,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.4" customHeight="1">
+    <row r="10" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>663</v>
       </c>
@@ -6627,7 +6625,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.4" customHeight="1">
+    <row r="11" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>670</v>
       </c>
@@ -6650,36 +6648,33 @@
         <v>676</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>678</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -6702,7 +6697,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1">
+    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>679</v>
       </c>
@@ -6725,7 +6720,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" customHeight="1">
+    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>686</v>
       </c>
@@ -6748,36 +6743,33 @@
         <v>692</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>694</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22:XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -6800,7 +6792,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1">
+    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>695</v>
       </c>
@@ -6823,7 +6815,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" customHeight="1">
+    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>702</v>
       </c>
@@ -6846,7 +6838,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4" customHeight="1">
+    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>709</v>
       </c>
@@ -6869,7 +6861,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" customHeight="1">
+    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>716</v>
       </c>
@@ -6892,7 +6884,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4" customHeight="1">
+    <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>723</v>
       </c>
@@ -6915,7 +6907,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.4" customHeight="1">
+    <row r="7" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>730</v>
       </c>
@@ -6938,7 +6930,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.4" customHeight="1">
+    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>737</v>
       </c>
@@ -6961,7 +6953,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.4" customHeight="1">
+    <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>744</v>
       </c>
@@ -6984,7 +6976,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.4" customHeight="1">
+    <row r="10" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>751</v>
       </c>
@@ -7007,7 +6999,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.4" customHeight="1">
+    <row r="11" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>758</v>
       </c>
@@ -7030,7 +7022,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.4" customHeight="1">
+    <row r="12" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>765</v>
       </c>
@@ -7053,7 +7045,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.4" customHeight="1">
+    <row r="13" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>772</v>
       </c>
@@ -7076,7 +7068,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.4" customHeight="1">
+    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>779</v>
       </c>
@@ -7099,7 +7091,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.4" customHeight="1">
+    <row r="15" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>786</v>
       </c>
@@ -7122,7 +7114,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.4" customHeight="1">
+    <row r="16" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>793</v>
       </c>
@@ -7145,7 +7137,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.4" customHeight="1">
+    <row r="17" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>800</v>
       </c>
@@ -7168,7 +7160,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.4" customHeight="1">
+    <row r="18" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>807</v>
       </c>
@@ -7191,7 +7183,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.4" customHeight="1">
+    <row r="19" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>814</v>
       </c>
@@ -7214,7 +7206,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.4" customHeight="1">
+    <row r="20" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>821</v>
       </c>
@@ -7237,7 +7229,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.4" customHeight="1">
+    <row r="21" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>828</v>
       </c>
@@ -7260,36 +7252,33 @@
         <v>834</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>836</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -7312,7 +7301,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1">
+    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>837</v>
       </c>
@@ -7335,7 +7324,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" customHeight="1">
+    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>844</v>
       </c>
@@ -7358,7 +7347,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4" customHeight="1">
+    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>851</v>
       </c>
@@ -7381,7 +7370,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" customHeight="1">
+    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>858</v>
       </c>
@@ -7404,7 +7393,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4" customHeight="1">
+    <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>865</v>
       </c>
@@ -7427,7 +7416,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.4" customHeight="1">
+    <row r="7" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>872</v>
       </c>
@@ -7450,7 +7439,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.4" customHeight="1">
+    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>879</v>
       </c>
@@ -7473,7 +7462,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.4" customHeight="1">
+    <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>886</v>
       </c>
@@ -7496,7 +7485,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.4" customHeight="1">
+    <row r="10" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>893</v>
       </c>
@@ -7519,7 +7508,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.4" customHeight="1">
+    <row r="11" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>900</v>
       </c>
@@ -7542,7 +7531,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.4" customHeight="1">
+    <row r="12" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>907</v>
       </c>
@@ -7565,7 +7554,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.4" customHeight="1">
+    <row r="13" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>914</v>
       </c>
@@ -7588,7 +7577,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.4" customHeight="1">
+    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>921</v>
       </c>
@@ -7611,7 +7600,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.4" customHeight="1">
+    <row r="15" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>928</v>
       </c>
@@ -7634,7 +7623,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.4" customHeight="1">
+    <row r="16" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>935</v>
       </c>
@@ -7657,7 +7646,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.4" customHeight="1">
+    <row r="17" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>942</v>
       </c>
@@ -7680,7 +7669,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.4" customHeight="1">
+    <row r="18" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>949</v>
       </c>
@@ -7703,7 +7692,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.4" customHeight="1">
+    <row r="19" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>956</v>
       </c>
@@ -7726,7 +7715,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.4" customHeight="1">
+    <row r="20" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>963</v>
       </c>
@@ -7749,36 +7738,33 @@
         <v>969</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>971</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A29" sqref="A29:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -7801,7 +7787,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1">
+    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>972</v>
       </c>
@@ -7824,7 +7810,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" customHeight="1">
+    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>979</v>
       </c>
@@ -7847,7 +7833,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4" customHeight="1">
+    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>986</v>
       </c>
@@ -7870,7 +7856,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" customHeight="1">
+    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>993</v>
       </c>
@@ -7893,7 +7879,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4" customHeight="1">
+    <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1000</v>
       </c>
@@ -7916,7 +7902,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.4" customHeight="1">
+    <row r="7" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1007</v>
       </c>
@@ -7939,7 +7925,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.4" customHeight="1">
+    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1014</v>
       </c>
@@ -7962,7 +7948,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.4" customHeight="1">
+    <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1021</v>
       </c>
@@ -7985,7 +7971,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.4" customHeight="1">
+    <row r="10" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1028</v>
       </c>
@@ -8008,7 +7994,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.4" customHeight="1">
+    <row r="11" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1035</v>
       </c>
@@ -8031,7 +8017,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.4" customHeight="1">
+    <row r="12" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1042</v>
       </c>
@@ -8054,7 +8040,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.4" customHeight="1">
+    <row r="13" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1049</v>
       </c>
@@ -8077,7 +8063,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.4" customHeight="1">
+    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1056</v>
       </c>
@@ -8100,7 +8086,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.4" customHeight="1">
+    <row r="15" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1063</v>
       </c>
@@ -8123,7 +8109,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.4" customHeight="1">
+    <row r="16" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>1070</v>
       </c>
@@ -8146,7 +8132,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.4" customHeight="1">
+    <row r="17" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1077</v>
       </c>
@@ -8169,7 +8155,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.4" customHeight="1">
+    <row r="18" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1084</v>
       </c>
@@ -8192,7 +8178,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.4" customHeight="1">
+    <row r="19" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1091</v>
       </c>
@@ -8215,7 +8201,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.4" customHeight="1">
+    <row r="20" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1098</v>
       </c>
@@ -8238,7 +8224,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.4" customHeight="1">
+    <row r="21" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1105</v>
       </c>
@@ -8261,7 +8247,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.4" customHeight="1">
+    <row r="22" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1112</v>
       </c>
@@ -8284,7 +8270,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.4" customHeight="1">
+    <row r="23" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1119</v>
       </c>
@@ -8307,7 +8293,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.4" customHeight="1">
+    <row r="24" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1126</v>
       </c>
@@ -8330,7 +8316,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.4" customHeight="1">
+    <row r="25" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1133</v>
       </c>
@@ -8353,7 +8339,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.4" customHeight="1">
+    <row r="26" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>1140</v>
       </c>
@@ -8376,7 +8362,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14.4" customHeight="1">
+    <row r="27" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1147</v>
       </c>
@@ -8399,7 +8385,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.4" customHeight="1">
+    <row r="28" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1154</v>
       </c>
@@ -8422,36 +8408,33 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>1162</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -8474,7 +8457,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1">
+    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1163</v>
       </c>
@@ -8497,7 +8480,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" customHeight="1">
+    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1170</v>
       </c>
@@ -8520,7 +8503,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4" customHeight="1">
+    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1177</v>
       </c>
@@ -8543,7 +8526,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" customHeight="1">
+    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1184</v>
       </c>
@@ -8566,7 +8549,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4" customHeight="1">
+    <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1191</v>
       </c>
@@ -8589,7 +8572,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.4" customHeight="1">
+    <row r="7" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1198</v>
       </c>
@@ -8612,7 +8595,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.4" customHeight="1">
+    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1205</v>
       </c>
@@ -8635,7 +8618,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.4" customHeight="1">
+    <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1212</v>
       </c>
@@ -8658,7 +8641,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.4" customHeight="1">
+    <row r="10" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1219</v>
       </c>
@@ -8681,7 +8664,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.4" customHeight="1">
+    <row r="11" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1226</v>
       </c>
@@ -8704,7 +8687,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.4" customHeight="1">
+    <row r="12" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1233</v>
       </c>
@@ -8727,7 +8710,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.4" customHeight="1">
+    <row r="13" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1240</v>
       </c>
@@ -8750,7 +8733,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.4" customHeight="1">
+    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1247</v>
       </c>
@@ -8773,7 +8756,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.4" customHeight="1">
+    <row r="15" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1254</v>
       </c>
@@ -8796,7 +8779,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.4" customHeight="1">
+    <row r="16" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1261</v>
       </c>
@@ -8819,7 +8802,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.4" customHeight="1">
+    <row r="17" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1268</v>
       </c>
@@ -8842,7 +8825,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.4" customHeight="1">
+    <row r="18" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1275</v>
       </c>
@@ -8865,7 +8848,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.4" customHeight="1">
+    <row r="19" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>1282</v>
       </c>
@@ -8888,7 +8871,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.4" customHeight="1">
+    <row r="20" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1289</v>
       </c>
@@ -8911,7 +8894,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.4" customHeight="1">
+    <row r="21" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1296</v>
       </c>
@@ -8934,37 +8917,34 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>1304</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -8987,7 +8967,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1">
+    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -9010,7 +8990,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" customHeight="1">
+    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -9033,7 +9013,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4" customHeight="1">
+    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -9056,7 +9036,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" customHeight="1">
+    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>137</v>
       </c>
@@ -9079,37 +9059,34 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>145</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -9132,7 +9109,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1">
+    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -9155,7 +9132,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" customHeight="1">
+    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -9178,7 +9155,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4" customHeight="1">
+    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -9201,7 +9178,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" customHeight="1">
+    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -9224,7 +9201,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4" customHeight="1">
+    <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>174</v>
       </c>
@@ -9247,7 +9224,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.4" customHeight="1">
+    <row r="7" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>181</v>
       </c>
@@ -9270,7 +9247,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.4" customHeight="1">
+    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>188</v>
       </c>
@@ -9293,7 +9270,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.4" customHeight="1">
+    <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>195</v>
       </c>
@@ -9316,36 +9293,33 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>203</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -9368,7 +9342,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1">
+    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -9391,7 +9365,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" customHeight="1">
+    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>211</v>
       </c>
@@ -9414,7 +9388,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4" customHeight="1">
+    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>218</v>
       </c>
@@ -9437,7 +9411,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" customHeight="1">
+    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>225</v>
       </c>
@@ -9460,7 +9434,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4" customHeight="1">
+    <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>232</v>
       </c>
@@ -9483,7 +9457,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.4" customHeight="1">
+    <row r="7" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>239</v>
       </c>
@@ -9506,7 +9480,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.4" customHeight="1">
+    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>246</v>
       </c>
@@ -9529,36 +9503,33 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>254</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -9581,7 +9552,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1">
+    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -9604,7 +9575,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" customHeight="1">
+    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>260</v>
       </c>
@@ -9627,7 +9598,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4" customHeight="1">
+    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>267</v>
       </c>
@@ -9650,7 +9621,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" customHeight="1">
+    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>274</v>
       </c>
@@ -9673,7 +9644,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4" customHeight="1">
+    <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>281</v>
       </c>
@@ -9696,36 +9667,33 @@
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>289</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -9748,7 +9716,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1">
+    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -9771,7 +9739,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" customHeight="1">
+    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>295</v>
       </c>
@@ -9794,7 +9762,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4" customHeight="1">
+    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>302</v>
       </c>
@@ -9817,7 +9785,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" customHeight="1">
+    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>309</v>
       </c>
@@ -9840,7 +9808,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4" customHeight="1">
+    <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>316</v>
       </c>
@@ -9863,36 +9831,33 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>324</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -9915,7 +9880,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1">
+    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -9938,7 +9903,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" customHeight="1">
+    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>330</v>
       </c>
@@ -9961,7 +9926,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4" customHeight="1">
+    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>337</v>
       </c>
@@ -9984,7 +9949,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" customHeight="1">
+    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>344</v>
       </c>
@@ -10007,7 +9972,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4" customHeight="1">
+    <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>351</v>
       </c>
@@ -10030,36 +9995,33 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>359</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -10082,7 +10044,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1">
+    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -10105,7 +10067,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" customHeight="1">
+    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>365</v>
       </c>
@@ -10128,7 +10090,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4" customHeight="1">
+    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>372</v>
       </c>
@@ -10151,7 +10113,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" customHeight="1">
+    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>379</v>
       </c>
@@ -10174,7 +10136,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4" customHeight="1">
+    <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>386</v>
       </c>
@@ -10197,36 +10159,33 @@
         <v>392</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>394</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -10249,7 +10208,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1">
+    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -10272,7 +10231,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" customHeight="1">
+    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>400</v>
       </c>
@@ -10295,7 +10254,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4" customHeight="1">
+    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>407</v>
       </c>
@@ -10318,7 +10277,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" customHeight="1">
+    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>414</v>
       </c>
@@ -10341,7 +10300,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4" customHeight="1">
+    <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>421</v>
       </c>
@@ -10364,18 +10323,19 @@
         <v>427</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>429</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>